--- a/data/trans_bre/P13_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.508158222111086</v>
+        <v>-1.472843726996729</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.585901986186817</v>
+        <v>5.129283758999667</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.03786315646020557</v>
+        <v>0.1655719091585708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3334869018696214</v>
+        <v>-0.3684550253198053</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2010439529894966</v>
+        <v>-0.1879899870764021</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5646107362184629</v>
+        <v>0.62848044955893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.0106706371121033</v>
+        <v>0.008888766979689395</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02946291418981104</v>
+        <v>-0.03450454202108406</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.086582787392254</v>
+        <v>3.85809546726466</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.2904823150767</v>
+        <v>10.76351234146805</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.341530715713025</v>
+        <v>4.422456097107383</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.817981043174398</v>
+        <v>7.113186472916726</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.835857712077278</v>
+        <v>0.8170972981405802</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.785264435648394</v>
+        <v>1.923114130375848</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9355882492581047</v>
+        <v>0.8834135529999544</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7387769162656397</v>
+        <v>0.7916554975007374</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>1.473895378650383</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5831347828329576</v>
+        <v>0.5831347828329574</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.3994861785906518</v>
+        <v>-0.1930672086982656</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.63475064147648</v>
+        <v>2.587803500400604</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.386359592293901</v>
+        <v>1.316654988481673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.03345035143283</v>
+        <v>0.8964495274188234</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1754706143738626</v>
+        <v>-0.101603603942324</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5034165436568975</v>
+        <v>0.4471484228342593</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4935244153294307</v>
+        <v>0.3798669780311301</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1694832138591919</v>
+        <v>0.1346879466564264</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.757923146583303</v>
+        <v>2.762667997788451</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.952813808095162</v>
+        <v>6.874307563130127</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.524053794848157</v>
+        <v>4.626252149106686</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.69091341173624</v>
+        <v>4.656785812583276</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.522484205131559</v>
+        <v>1.598588928868968</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.207294579012095</v>
+        <v>2.098200965305213</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.15307455019215</v>
+        <v>3.324837334013486</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.268861609554447</v>
+        <v>1.164612457514449</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.5478412767666637</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6353703647409891</v>
+        <v>0.6353703647409888</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3217089026712531</v>
+        <v>0.1442287748322867</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6896486391453419</v>
+        <v>-0.7919984817461718</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5320597685371556</v>
+        <v>-0.4829450751555738</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3745468470414429</v>
+        <v>0.2703494704876867</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.05197481476493239</v>
+        <v>0.003713868244328619</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1654992808523523</v>
+        <v>-0.186197095437564</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2421339043788575</v>
+        <v>-0.1661407898080227</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.074135243082252</v>
+        <v>0.07432989806032667</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.977513102365235</v>
+        <v>3.076168765202264</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.327411989545566</v>
+        <v>3.067039362172461</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.998378193071203</v>
+        <v>3.160213524151719</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.332290976344</v>
+        <v>3.345386207112901</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.045468288040558</v>
+        <v>2.070259577822314</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.211064300845435</v>
+        <v>1.105705366424248</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.921698946444038</v>
+        <v>2.052906631439776</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.559842444291364</v>
+        <v>1.602671184677638</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.9367441689806868</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5645647506980177</v>
+        <v>0.5645647506980184</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3036246809079449</v>
@@ -949,7 +949,7 @@
         <v>0.3542465722869556</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1201721524051785</v>
+        <v>0.1201721524051786</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.964207809396</v>
+        <v>-2.027571477137038</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2416091586155093</v>
+        <v>0.3198353014515036</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.387928302727274</v>
+        <v>-1.356811589509908</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.519743963586985</v>
+        <v>-1.502514610538779</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4985766917445551</v>
+        <v>-0.4928216200153203</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01747885239777017</v>
+        <v>-0.02186090324889858</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4206493021535081</v>
+        <v>-0.3882742519286769</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2517462709293423</v>
+        <v>-0.2624914630462461</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.548413862263641</v>
+        <v>3.722594662918209</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.08277180453462</v>
+        <v>5.740447608001777</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.306091710621015</v>
+        <v>3.51107851047986</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.306915090175571</v>
+        <v>2.199964226480425</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.891686664149473</v>
+        <v>2.123475926682661</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.507458558357727</v>
+        <v>2.336782950281579</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.975410357651946</v>
+        <v>2.156049547694201</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6049189462532899</v>
+        <v>0.5880564168408465</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.115832570494255</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.268549023653632</v>
+        <v>2.268549023653633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5606561705391371</v>
@@ -1049,7 +1049,7 @@
         <v>0.6207731419363089</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4373819025996531</v>
+        <v>0.4373819025996534</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7380510311983445</v>
+        <v>0.7593161176138522</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.303475934650853</v>
+        <v>3.380812027758479</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.077047356690617</v>
+        <v>1.101589154148635</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.182799965485849</v>
+        <v>1.188879249073174</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2031319862926282</v>
+        <v>0.2177660612132898</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6204677807319546</v>
+        <v>0.6472051399621692</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.268520735462986</v>
+        <v>0.2907006645037311</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1991019243562631</v>
+        <v>0.2062542010762902</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.623020386463194</v>
+        <v>2.683514262865897</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.794712178675145</v>
+        <v>5.984781623675451</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.126622324566315</v>
+        <v>3.206868610468407</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.301298703873543</v>
+        <v>3.329246828500374</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9829417894753555</v>
+        <v>1.048369558035284</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.419803351780521</v>
+        <v>1.454009102904172</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.025088392250948</v>
+        <v>1.121311689022675</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7270753946113759</v>
+        <v>0.7175086096082763</v>
       </c>
     </row>
     <row r="19">
